--- a/biology/Écologie/Mésotrophe/Mésotrophe.xlsx
+++ b/biology/Écologie/Mésotrophe/Mésotrophe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9sotrophe</t>
+          <t>Mésotrophe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un milieu mésotrophe (du grec μεσο / meso « milieu » et τροφικός / trophikos « nourrir ») est un milieu moyennement riche en nutriments. Il se situe entre les milieux oligotrophe (moins riche) et eutrophe (plus riche voire  déséquilibré).
  Portail de l’écologie   Portail de l’environnement   Portail de l’eau                   </t>
